--- a/data/trans_orig/P16A05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A05-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5AB6CBD-9F9D-4918-8791-DBA822B8BA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C94414AF-2C06-4CC4-AB47-67A53376413E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5D8CA9A3-42C6-492F-B4D1-A0B9D30F1CB7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0C748CDD-8680-4433-9682-11B254DAD0B9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="401">
   <si>
     <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -80,22 +80,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,44%</t>
+    <t>6,59%</t>
   </si>
   <si>
     <t>3,19%</t>
   </si>
   <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
     <t>0,87%</t>
   </si>
   <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
+    <t>5,12%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +107,7 @@
     <t>98,14%</t>
   </si>
   <si>
-    <t>93,56%</t>
+    <t>93,41%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -113,18 +116,21 @@
     <t>96,81%</t>
   </si>
   <si>
-    <t>92,3%</t>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
   </si>
   <si>
     <t>99,13%</t>
   </si>
   <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
@@ -143,1099 +149,1099 @@
     <t>3,31%</t>
   </si>
   <si>
-    <t>2,08%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
   </si>
   <si>
     <t>5,15%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
   </si>
   <si>
     <t>94,85%</t>
   </si>
   <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
   </si>
   <si>
     <t>3,75%</t>
   </si>
   <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
   </si>
   <si>
     <t>96,25%</t>
   </si>
   <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
   </si>
   <si>
     <t>5,21%</t>
   </si>
   <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
   </si>
   <si>
     <t>94,79%</t>
   </si>
   <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2023 (Tasa respuesta: 99,87%)</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
   </si>
   <si>
     <t>4,43%</t>
   </si>
   <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
   </si>
   <si>
     <t>95,57%</t>
   </si>
   <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
   </si>
   <si>
     <t>4,46%</t>
   </si>
   <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
   </si>
   <si>
     <t>95,54%</t>
   </si>
   <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
+    <t>94,74%</t>
   </si>
   <si>
     <t>96,18%</t>
   </si>
   <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
   </si>
   <si>
     <t>93,97%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2023 (Tasa respuesta: 99,87%)</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
   </si>
 </sst>
 </file>
@@ -1647,7 +1653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D4ECBF-9E9C-46B2-BFFB-3D511E6B0361}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE8DE8-7F10-4E8D-9D12-913324F0C0C8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1804,16 +1810,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>103</v>
@@ -1822,13 +1828,13 @@
         <v>113210</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>124</v>
@@ -1837,13 +1843,13 @@
         <v>109160</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>227</v>
@@ -1852,13 +1858,13 @@
         <v>222370</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1873,13 +1879,13 @@
         <v>115358</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>128</v>
@@ -1888,13 +1894,13 @@
         <v>112755</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>233</v>
@@ -1903,18 +1909,18 @@
         <v>228113</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1926,13 +1932,13 @@
         <v>17938</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -1941,13 +1947,13 @@
         <v>19068</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -1956,19 +1962,19 @@
         <v>37006</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>558</v>
@@ -1977,13 +1983,13 @@
         <v>559698</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>549</v>
@@ -1992,13 +1998,13 @@
         <v>556528</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1107</v>
@@ -2007,13 +2013,13 @@
         <v>1116226</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2028,13 +2034,13 @@
         <v>577636</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>568</v>
@@ -2043,13 +2049,13 @@
         <v>575596</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1145</v>
@@ -2058,18 +2064,18 @@
         <v>1153232</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2081,13 +2087,13 @@
         <v>24337</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -2096,13 +2102,13 @@
         <v>55125</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>74</v>
@@ -2111,19 +2117,19 @@
         <v>79463</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>873</v>
@@ -2132,13 +2138,13 @@
         <v>937463</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>857</v>
@@ -2147,13 +2153,13 @@
         <v>913268</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1730</v>
@@ -2162,13 +2168,13 @@
         <v>1850730</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2183,13 +2189,13 @@
         <v>961800</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>908</v>
@@ -2198,13 +2204,13 @@
         <v>968393</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1804</v>
@@ -2213,18 +2219,18 @@
         <v>1930193</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2236,13 +2242,13 @@
         <v>13204</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -2251,13 +2257,13 @@
         <v>46706</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -2266,19 +2272,19 @@
         <v>59910</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>628</v>
@@ -2287,13 +2293,13 @@
         <v>665305</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>647</v>
@@ -2302,13 +2308,13 @@
         <v>637135</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>1275</v>
@@ -2317,13 +2323,13 @@
         <v>1302440</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,13 +2344,13 @@
         <v>678509</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>696</v>
@@ -2353,13 +2359,13 @@
         <v>683841</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>1337</v>
@@ -2368,18 +2374,18 @@
         <v>1362350</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2391,13 +2397,13 @@
         <v>26924</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>54</v>
@@ -2406,13 +2412,13 @@
         <v>55644</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>82</v>
@@ -2421,19 +2427,19 @@
         <v>82568</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>966</v>
@@ -2442,13 +2448,13 @@
         <v>915298</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>943</v>
@@ -2457,13 +2463,13 @@
         <v>982968</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>1909</v>
@@ -2472,13 +2478,13 @@
         <v>1898266</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,13 +2499,13 @@
         <v>942222</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>997</v>
@@ -2508,13 +2514,13 @@
         <v>1038612</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>1991</v>
@@ -2523,13 +2529,13 @@
         <v>1980834</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2546,13 +2552,13 @@
         <v>84552</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>177</v>
@@ -2561,13 +2567,13 @@
         <v>180138</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>262</v>
@@ -2576,34 +2582,34 @@
         <v>264690</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>3128</v>
       </c>
       <c r="D20" s="7">
-        <v>3190973</v>
+        <v>3190974</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>3120</v>
@@ -2612,28 +2618,28 @@
         <v>3199060</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>6248</v>
       </c>
       <c r="N20" s="7">
-        <v>6390032</v>
+        <v>6390033</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,16 +2651,16 @@
         <v>3213</v>
       </c>
       <c r="D21" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>3297</v>
@@ -2663,33 +2669,33 @@
         <v>3379198</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>6510</v>
       </c>
       <c r="N21" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2710,7 +2716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97D3641-18AD-4CE0-AB72-1D61603669C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C45414E-A278-4B85-B159-588AE1BEEFC2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2727,7 +2733,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2834,13 +2840,13 @@
         <v>4844</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -2849,13 +2855,13 @@
         <v>10547</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -2864,19 +2870,19 @@
         <v>15392</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>117</v>
@@ -2885,13 +2891,13 @@
         <v>110106</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H5" s="7">
         <v>89</v>
@@ -2900,13 +2906,13 @@
         <v>101358</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>206</v>
@@ -2915,13 +2921,13 @@
         <v>211463</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,13 +2942,13 @@
         <v>114950</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>99</v>
@@ -2951,13 +2957,13 @@
         <v>111905</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>220</v>
@@ -2966,18 +2972,18 @@
         <v>226855</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2989,13 +2995,13 @@
         <v>19684</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="H7" s="7">
         <v>37</v>
@@ -3004,13 +3010,13 @@
         <v>38850</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M7" s="7">
         <v>55</v>
@@ -3019,19 +3025,19 @@
         <v>58534</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>532</v>
@@ -3040,13 +3046,13 @@
         <v>566130</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="H8" s="7">
         <v>510</v>
@@ -3055,13 +3061,13 @@
         <v>541582</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M8" s="7">
         <v>1042</v>
@@ -3070,13 +3076,13 @@
         <v>1107711</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,13 +3097,13 @@
         <v>585814</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>547</v>
@@ -3106,13 +3112,13 @@
         <v>580432</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1097</v>
@@ -3121,18 +3127,18 @@
         <v>1166245</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3144,13 +3150,13 @@
         <v>30227</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="H10" s="7">
         <v>75</v>
@@ -3159,13 +3165,13 @@
         <v>82944</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M10" s="7">
         <v>103</v>
@@ -3174,19 +3180,19 @@
         <v>113171</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>908</v>
@@ -3195,13 +3201,13 @@
         <v>987720</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H11" s="7">
         <v>862</v>
@@ -3210,13 +3216,13 @@
         <v>945981</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M11" s="7">
         <v>1770</v>
@@ -3225,13 +3231,13 @@
         <v>1933701</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,13 +3252,13 @@
         <v>1017947</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>937</v>
@@ -3261,13 +3267,13 @@
         <v>1028925</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1873</v>
@@ -3276,18 +3282,18 @@
         <v>2046872</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3299,13 +3305,13 @@
         <v>24781</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -3314,13 +3320,13 @@
         <v>46131</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -3329,19 +3335,19 @@
         <v>70912</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>671</v>
@@ -3350,13 +3356,13 @@
         <v>731757</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>184</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H14" s="7">
         <v>663</v>
@@ -3365,13 +3371,13 @@
         <v>730152</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="M14" s="7">
         <v>1334</v>
@@ -3380,13 +3386,13 @@
         <v>1461909</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,13 +3407,13 @@
         <v>756538</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>704</v>
@@ -3416,13 +3422,13 @@
         <v>776283</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>1392</v>
@@ -3431,18 +3437,18 @@
         <v>1532821</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3454,13 +3460,13 @@
         <v>35248</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>188</v>
+        <v>103</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>192</v>
       </c>
       <c r="H16" s="7">
         <v>72</v>
@@ -3469,13 +3475,13 @@
         <v>74340</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M16" s="7">
         <v>102</v>
@@ -3484,19 +3490,19 @@
         <v>109588</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>878</v>
@@ -3505,13 +3511,13 @@
         <v>910682</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>196</v>
+        <v>112</v>
       </c>
       <c r="H17" s="7">
         <v>929</v>
@@ -3520,13 +3526,13 @@
         <v>975406</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M17" s="7">
         <v>1807</v>
@@ -3535,13 +3541,13 @@
         <v>1886089</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,13 +3562,13 @@
         <v>945930</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>1001</v>
@@ -3571,13 +3577,13 @@
         <v>1049746</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>1909</v>
@@ -3586,13 +3592,13 @@
         <v>1995677</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,13 +3615,13 @@
         <v>114785</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H19" s="7">
         <v>235</v>
@@ -3624,13 +3630,13 @@
         <v>252812</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M19" s="7">
         <v>332</v>
@@ -3639,19 +3645,19 @@
         <v>367597</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>3106</v>
@@ -3660,13 +3666,13 @@
         <v>3306394</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H20" s="7">
         <v>3053</v>
@@ -3675,13 +3681,13 @@
         <v>3294480</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M20" s="7">
         <v>6159</v>
@@ -3690,13 +3696,13 @@
         <v>6600873</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,13 +3717,13 @@
         <v>3421179</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>3288</v>
@@ -3726,13 +3732,13 @@
         <v>3547292</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>6491</v>
@@ -3741,18 +3747,18 @@
         <v>6968470</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3773,7 +3779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A43FC52-C96D-470B-8C0F-7EE2B1FA285B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92EFEB0-8432-4F02-9388-56F9ADF3A1C9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3790,7 +3796,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3897,13 +3903,13 @@
         <v>3595</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -3912,13 +3918,13 @@
         <v>8537</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -3927,19 +3933,19 @@
         <v>12132</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>110</v>
@@ -3948,13 +3954,13 @@
         <v>112951</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H5" s="7">
         <v>106</v>
@@ -3963,13 +3969,13 @@
         <v>104823</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M5" s="7">
         <v>216</v>
@@ -3978,13 +3984,13 @@
         <v>217774</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,13 +4005,13 @@
         <v>116546</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>115</v>
@@ -4014,13 +4020,13 @@
         <v>113360</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>228</v>
@@ -4029,18 +4035,18 @@
         <v>229906</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4052,13 +4058,13 @@
         <v>12864</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H7" s="7">
         <v>43</v>
@@ -4067,13 +4073,13 @@
         <v>43616</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -4082,19 +4088,19 @@
         <v>56480</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>242</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>243</v>
+        <v>109</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>146</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>526</v>
@@ -4103,13 +4109,13 @@
         <v>545390</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>244</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H8" s="7">
         <v>508</v>
@@ -4118,13 +4124,13 @@
         <v>515863</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M8" s="7">
         <v>1034</v>
@@ -4133,13 +4139,13 @@
         <v>1061253</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>247</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>251</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,13 +4160,13 @@
         <v>558254</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>551</v>
@@ -4169,13 +4175,13 @@
         <v>559479</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1090</v>
@@ -4184,18 +4190,18 @@
         <v>1117733</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4207,13 +4213,13 @@
         <v>31438</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="H10" s="7">
         <v>62</v>
@@ -4222,13 +4228,13 @@
         <v>69557</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M10" s="7">
         <v>92</v>
@@ -4237,19 +4243,19 @@
         <v>100995</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>258</v>
+        <v>89</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>921</v>
@@ -4258,13 +4264,13 @@
         <v>990993</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>257</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H11" s="7">
         <v>915</v>
@@ -4273,13 +4279,13 @@
         <v>973356</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M11" s="7">
         <v>1836</v>
@@ -4288,13 +4294,13 @@
         <v>1964349</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>267</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,13 +4315,13 @@
         <v>1022431</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>977</v>
@@ -4324,13 +4330,13 @@
         <v>1042913</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1928</v>
@@ -4339,18 +4345,18 @@
         <v>2065344</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4362,13 +4368,13 @@
         <v>29806</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>145</v>
+        <v>264</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>203</v>
+        <v>265</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>268</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
@@ -4377,13 +4383,13 @@
         <v>57822</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M13" s="7">
         <v>81</v>
@@ -4392,19 +4398,19 @@
         <v>87628</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>668</v>
@@ -4413,13 +4419,13 @@
         <v>729746</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>154</v>
+        <v>272</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>274</v>
+        <v>184</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>212</v>
+        <v>273</v>
       </c>
       <c r="H14" s="7">
         <v>683</v>
@@ -4428,13 +4434,13 @@
         <v>727189</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M14" s="7">
         <v>1351</v>
@@ -4443,7 +4449,7 @@
         <v>1456935</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>278</v>
@@ -4464,13 +4470,13 @@
         <v>759552</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>736</v>
@@ -4479,13 +4485,13 @@
         <v>785011</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>1432</v>
@@ -4494,18 +4500,18 @@
         <v>1544563</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4517,13 +4523,13 @@
         <v>40462</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H16" s="7">
         <v>79</v>
@@ -4532,13 +4538,13 @@
         <v>91125</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M16" s="7">
         <v>118</v>
@@ -4547,19 +4553,19 @@
         <v>131587</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>163</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>893</v>
@@ -4568,13 +4574,13 @@
         <v>897105</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H17" s="7">
         <v>880</v>
@@ -4583,13 +4589,13 @@
         <v>952654</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M17" s="7">
         <v>1773</v>
@@ -4598,13 +4604,13 @@
         <v>1849759</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>294</v>
+        <v>173</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>249</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4619,13 +4625,13 @@
         <v>937567</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>959</v>
@@ -4634,13 +4640,13 @@
         <v>1043779</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>1891</v>
@@ -4649,13 +4655,13 @@
         <v>1981346</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4672,13 +4678,13 @@
         <v>118165</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>177</v>
+        <v>292</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H19" s="7">
         <v>246</v>
@@ -4687,13 +4693,13 @@
         <v>270657</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>296</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M19" s="7">
         <v>359</v>
@@ -4702,19 +4708,19 @@
         <v>388822</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>3118</v>
@@ -4723,13 +4729,13 @@
         <v>3276185</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>186</v>
+        <v>301</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="H20" s="7">
         <v>3092</v>
@@ -4738,13 +4744,13 @@
         <v>3273885</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>6210</v>
@@ -4774,13 +4780,13 @@
         <v>3394350</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>3338</v>
@@ -4789,13 +4795,13 @@
         <v>3544542</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>6569</v>
@@ -4804,18 +4810,18 @@
         <v>6938892</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4836,7 +4842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BF769B-FD45-4A51-A2BD-5D214D7CE22A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756AFE80-AF55-4873-9411-C5D0037351D3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5002,7 +5008,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>116</v>
@@ -5017,7 +5023,7 @@
         <v>320</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>229</v>
@@ -5062,13 +5068,13 @@
         <v>101982</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>242</v>
@@ -5077,13 +5083,13 @@
         <v>130376</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>360</v>
@@ -5092,18 +5098,18 @@
         <v>232358</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5136,7 +5142,7 @@
         <v>331</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>332</v>
+        <v>224</v>
       </c>
       <c r="M7" s="7">
         <v>126</v>
@@ -5145,19 +5151,19 @@
         <v>74825</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>577</v>
@@ -5166,13 +5172,13 @@
         <v>520936</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="H8" s="7">
         <v>904</v>
@@ -5181,13 +5187,13 @@
         <v>546503</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="M8" s="7">
         <v>1481</v>
@@ -5196,13 +5202,13 @@
         <v>1067439</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5223,13 @@
         <v>549302</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>996</v>
@@ -5232,13 +5238,13 @@
         <v>592962</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1607</v>
@@ -5247,18 +5253,18 @@
         <v>1142264</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5273,10 +5279,10 @@
         <v>316</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>344</v>
+        <v>34</v>
       </c>
       <c r="H10" s="7">
         <v>179</v>
@@ -5285,13 +5291,13 @@
         <v>110141</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M10" s="7">
         <v>215</v>
@@ -5300,19 +5306,19 @@
         <v>144103</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>210</v>
+        <v>346</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>928</v>
@@ -5324,10 +5330,10 @@
         <v>324</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>350</v>
+        <v>42</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H11" s="7">
         <v>1337</v>
@@ -5336,13 +5342,13 @@
         <v>949333</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M11" s="7">
         <v>2265</v>
@@ -5351,13 +5357,13 @@
         <v>1954619</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>217</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,13 +5378,13 @@
         <v>1039248</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>1516</v>
@@ -5387,13 +5393,13 @@
         <v>1059474</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>2480</v>
@@ -5402,18 +5408,18 @@
         <v>2098722</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5425,13 +5431,13 @@
         <v>37830</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="H13" s="7">
         <v>87</v>
@@ -5440,13 +5446,13 @@
         <v>60952</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>273</v>
+        <v>358</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>124</v>
@@ -5458,16 +5464,16 @@
         <v>361</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>638</v>
@@ -5476,13 +5482,13 @@
         <v>689871</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="H14" s="7">
         <v>958</v>
@@ -5491,13 +5497,13 @@
         <v>812145</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>278</v>
+        <v>366</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>367</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M14" s="7">
         <v>1596</v>
@@ -5506,13 +5512,13 @@
         <v>1502016</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>370</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5527,13 +5533,13 @@
         <v>727701</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>1045</v>
@@ -5542,13 +5548,13 @@
         <v>873097</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>1720</v>
@@ -5557,18 +5563,18 @@
         <v>1600798</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5586,7 +5592,7 @@
         <v>372</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>141</v>
+        <v>373</v>
       </c>
       <c r="H16" s="7">
         <v>140</v>
@@ -5595,13 +5601,13 @@
         <v>101311</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M16" s="7">
         <v>198</v>
@@ -5610,19 +5616,19 @@
         <v>150664</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>377</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>948</v>
@@ -5634,10 +5640,10 @@
         <v>378</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>149</v>
+        <v>379</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H17" s="7">
         <v>1419</v>
@@ -5646,13 +5652,13 @@
         <v>1044992</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M17" s="7">
         <v>2367</v>
@@ -5661,10 +5667,10 @@
         <v>1961042</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>383</v>
+        <v>260</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>384</v>
@@ -5682,13 +5688,13 @@
         <v>965403</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>1559</v>
@@ -5697,13 +5703,13 @@
         <v>1146303</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>2565</v>
@@ -5712,13 +5718,13 @@
         <v>2111706</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,13 +5741,13 @@
         <v>151061</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>161</v>
+        <v>385</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>92</v>
+        <v>387</v>
       </c>
       <c r="H19" s="7">
         <v>511</v>
@@ -5750,13 +5756,13 @@
         <v>324914</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>388</v>
+        <v>268</v>
       </c>
       <c r="M19" s="7">
         <v>678</v>
@@ -5765,34 +5771,34 @@
         <v>475975</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>3207</v>
       </c>
       <c r="D20" s="7">
-        <v>3232575</v>
+        <v>3232576</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>170</v>
+        <v>393</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>99</v>
+        <v>394</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="H20" s="7">
         <v>4847</v>
@@ -5801,13 +5807,13 @@
         <v>3477298</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>394</v>
+        <v>275</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M20" s="7">
         <v>8054</v>
@@ -5816,13 +5822,13 @@
         <v>6709874</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5834,16 +5840,16 @@
         <v>3374</v>
       </c>
       <c r="D21" s="7">
-        <v>3383636</v>
+        <v>3383637</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>5358</v>
@@ -5852,13 +5858,13 @@
         <v>3802212</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>8732</v>
@@ -5867,18 +5873,18 @@
         <v>7185849</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A05-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C94414AF-2C06-4CC4-AB47-67A53376413E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDE61A3A-6505-411A-94FA-56F4A55A4F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0C748CDD-8680-4433-9682-11B254DAD0B9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{066F4F6F-2196-45EE-A118-8D58E6A8ECF0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="409">
   <si>
     <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -80,1156 +80,1180 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
     <t>6,59%</t>
   </si>
   <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,14%</t>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
   </si>
   <si>
     <t>93,41%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
   </si>
   <si>
     <t>5,05%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
   </si>
   <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
   </si>
   <si>
     <t>95,74%</t>
   </si>
   <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
   </si>
   <si>
     <t>95,84%</t>
   </si>
   <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2023 (Tasa respuesta: 99,87%)</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
   </si>
   <si>
     <t>4,71%</t>
   </si>
   <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
   </si>
   <si>
     <t>95,29%</t>
   </si>
   <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
   </si>
   <si>
     <t>8,43%</t>
   </si>
   <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
   </si>
   <si>
     <t>91,57%</t>
   </si>
   <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
   </si>
   <si>
     <t>9,41%</t>
   </si>
   <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
   </si>
   <si>
     <t>90,59%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2023 (Tasa respuesta: 99,87%)</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
   </si>
   <si>
     <t>92,44%</t>
@@ -1653,7 +1677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE8DE8-7F10-4E8D-9D12-913324F0C0C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED305965-5112-400F-B986-95982B34B406}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2248,7 +2272,7 @@
         <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -2257,13 +2281,13 @@
         <v>46706</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -2272,13 +2296,13 @@
         <v>59910</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2293,13 +2317,13 @@
         <v>665305</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>647</v>
@@ -2308,13 +2332,13 @@
         <v>637135</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1275</v>
@@ -2323,13 +2347,13 @@
         <v>1302440</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2385,7 +2409,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2397,13 +2421,13 @@
         <v>26924</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>54</v>
@@ -2412,13 +2436,13 @@
         <v>55644</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>82</v>
@@ -2427,13 +2451,13 @@
         <v>82568</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,13 +2472,13 @@
         <v>915298</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>943</v>
@@ -2463,13 +2487,13 @@
         <v>982968</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>1909</v>
@@ -2478,13 +2502,13 @@
         <v>1898266</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2552,13 +2576,13 @@
         <v>84552</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>177</v>
@@ -2567,13 +2591,13 @@
         <v>180138</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>262</v>
@@ -2582,13 +2606,13 @@
         <v>264690</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,16 +2624,16 @@
         <v>3128</v>
       </c>
       <c r="D20" s="7">
-        <v>3190974</v>
+        <v>3190973</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>3120</v>
@@ -2618,13 +2642,13 @@
         <v>3199060</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>6248</v>
@@ -2633,13 +2657,13 @@
         <v>6390033</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,7 +2675,7 @@
         <v>3213</v>
       </c>
       <c r="D21" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2695,7 +2719,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2716,7 +2740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C45414E-A278-4B85-B159-588AE1BEEFC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9A4422-589A-4C1F-9482-E00B8A595D48}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2733,7 +2757,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2840,13 +2864,13 @@
         <v>4844</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -2855,13 +2879,13 @@
         <v>10547</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -2870,13 +2894,13 @@
         <v>15392</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,13 +2915,13 @@
         <v>110106</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>89</v>
@@ -2906,13 +2930,13 @@
         <v>101358</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>206</v>
@@ -2921,13 +2945,13 @@
         <v>211463</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,13 +3019,13 @@
         <v>19684</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="H7" s="7">
         <v>37</v>
@@ -3010,13 +3034,13 @@
         <v>38850</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M7" s="7">
         <v>55</v>
@@ -3025,13 +3049,13 @@
         <v>58534</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,13 +3070,13 @@
         <v>566130</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>510</v>
@@ -3061,13 +3085,13 @@
         <v>541582</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>1042</v>
@@ -3076,13 +3100,13 @@
         <v>1107711</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,13 +3174,13 @@
         <v>30227</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="H10" s="7">
         <v>75</v>
@@ -3204,10 +3228,10 @@
         <v>166</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>167</v>
+        <v>103</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="H11" s="7">
         <v>862</v>
@@ -3216,13 +3240,13 @@
         <v>945981</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M11" s="7">
         <v>1770</v>
@@ -3231,13 +3255,13 @@
         <v>1933701</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3305,13 +3329,13 @@
         <v>24781</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -3320,13 +3344,13 @@
         <v>46131</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -3335,13 +3359,13 @@
         <v>70912</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,13 +3380,13 @@
         <v>731757</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>663</v>
@@ -3371,13 +3395,13 @@
         <v>730152</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M14" s="7">
         <v>1334</v>
@@ -3386,13 +3410,13 @@
         <v>1461909</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,7 +3472,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3460,13 +3484,13 @@
         <v>35248</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>103</v>
+        <v>188</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H16" s="7">
         <v>72</v>
@@ -3475,13 +3499,13 @@
         <v>74340</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M16" s="7">
         <v>102</v>
@@ -3490,13 +3514,13 @@
         <v>109588</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,13 +3535,13 @@
         <v>910682</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H17" s="7">
         <v>929</v>
@@ -3526,13 +3550,13 @@
         <v>975406</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M17" s="7">
         <v>1807</v>
@@ -3615,13 +3639,13 @@
         <v>114785</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>205</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>206</v>
+        <v>57</v>
       </c>
       <c r="H19" s="7">
         <v>235</v>
@@ -3630,13 +3654,13 @@
         <v>252812</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M19" s="7">
         <v>332</v>
@@ -3645,13 +3669,13 @@
         <v>367597</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,13 +3690,13 @@
         <v>3306394</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>213</v>
+        <v>66</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H20" s="7">
         <v>3053</v>
@@ -3681,13 +3705,13 @@
         <v>3294480</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M20" s="7">
         <v>6159</v>
@@ -3696,13 +3720,13 @@
         <v>6600873</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,7 +3782,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3779,7 +3803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92EFEB0-8432-4F02-9388-56F9ADF3A1C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E554A3DA-DB9A-4FD6-876C-839E6ABC8F36}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3796,7 +3820,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3903,13 +3927,13 @@
         <v>3595</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -3918,13 +3942,13 @@
         <v>8537</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -3933,13 +3957,13 @@
         <v>12132</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,13 +3978,13 @@
         <v>112951</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H5" s="7">
         <v>106</v>
@@ -3969,13 +3993,13 @@
         <v>104823</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M5" s="7">
         <v>216</v>
@@ -3984,13 +4008,13 @@
         <v>217774</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,13 +4082,13 @@
         <v>12864</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>236</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H7" s="7">
         <v>43</v>
@@ -4073,13 +4097,13 @@
         <v>43616</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -4088,13 +4112,13 @@
         <v>56480</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>242</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>109</v>
+        <v>243</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,13 +4133,13 @@
         <v>545390</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>245</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H8" s="7">
         <v>508</v>
@@ -4124,13 +4148,13 @@
         <v>515863</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M8" s="7">
         <v>1034</v>
@@ -4139,13 +4163,13 @@
         <v>1061253</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>251</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,13 +4237,13 @@
         <v>31438</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>249</v>
+        <v>36</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="H10" s="7">
         <v>62</v>
@@ -4228,13 +4252,13 @@
         <v>69557</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="M10" s="7">
         <v>92</v>
@@ -4243,13 +4267,13 @@
         <v>100995</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,13 +4288,13 @@
         <v>990993</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>258</v>
+        <v>46</v>
       </c>
       <c r="H11" s="7">
         <v>915</v>
@@ -4279,13 +4303,13 @@
         <v>973356</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="M11" s="7">
         <v>1836</v>
@@ -4294,13 +4318,13 @@
         <v>1964349</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>96</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4368,13 +4392,13 @@
         <v>29806</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>272</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
@@ -4383,13 +4407,13 @@
         <v>57822</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="M13" s="7">
         <v>81</v>
@@ -4398,13 +4422,13 @@
         <v>87628</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>270</v>
+        <v>194</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4419,13 +4443,13 @@
         <v>729746</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>279</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="H14" s="7">
         <v>683</v>
@@ -4434,13 +4458,13 @@
         <v>727189</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="M14" s="7">
         <v>1351</v>
@@ -4449,13 +4473,13 @@
         <v>1456935</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,7 +4535,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4523,13 +4547,13 @@
         <v>40462</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="H16" s="7">
         <v>79</v>
@@ -4538,13 +4562,13 @@
         <v>91125</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="M16" s="7">
         <v>118</v>
@@ -4553,13 +4577,13 @@
         <v>131587</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>165</v>
+        <v>292</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>163</v>
+        <v>293</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4574,13 +4598,13 @@
         <v>897105</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="H17" s="7">
         <v>880</v>
@@ -4589,13 +4613,13 @@
         <v>952654</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="M17" s="7">
         <v>1773</v>
@@ -4604,13 +4628,13 @@
         <v>1849759</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>173</v>
+        <v>301</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>172</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4678,13 +4702,13 @@
         <v>118165</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="H19" s="7">
         <v>246</v>
@@ -4693,13 +4717,13 @@
         <v>270657</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>296</v>
+        <v>145</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="M19" s="7">
         <v>359</v>
@@ -4708,13 +4732,13 @@
         <v>388822</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>299</v>
+        <v>257</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4729,13 +4753,13 @@
         <v>3276185</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="H20" s="7">
         <v>3092</v>
@@ -4744,13 +4768,13 @@
         <v>3273885</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>306</v>
+        <v>153</v>
       </c>
       <c r="M20" s="7">
         <v>6210</v>
@@ -4759,13 +4783,13 @@
         <v>6550070</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,7 +4845,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4842,7 +4866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756AFE80-AF55-4873-9411-C5D0037351D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059E0804-6C44-423C-A7C8-94C65799099E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4859,7 +4883,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4966,13 +4990,13 @@
         <v>1549</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>312</v>
+        <v>174</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -4981,13 +5005,13 @@
         <v>6051</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -4996,13 +5020,13 @@
         <v>7601</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,10 +5041,10 @@
         <v>100433</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>320</v>
+        <v>181</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -5032,13 +5056,13 @@
         <v>124325</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="M5" s="7">
         <v>345</v>
@@ -5047,13 +5071,13 @@
         <v>224757</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5121,13 +5145,13 @@
         <v>28366</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>327</v>
+        <v>74</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="H7" s="7">
         <v>92</v>
@@ -5136,13 +5160,13 @@
         <v>46459</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>224</v>
+        <v>337</v>
       </c>
       <c r="M7" s="7">
         <v>126</v>
@@ -5151,13 +5175,13 @@
         <v>74825</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>332</v>
+        <v>165</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>177</v>
+        <v>338</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,13 +5196,13 @@
         <v>520936</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>334</v>
+        <v>84</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="H8" s="7">
         <v>904</v>
@@ -5187,13 +5211,13 @@
         <v>546503</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>230</v>
+        <v>343</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="M8" s="7">
         <v>1481</v>
@@ -5202,13 +5226,13 @@
         <v>1067439</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>339</v>
+        <v>171</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>184</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5276,13 +5300,13 @@
         <v>33962</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>179</v>
@@ -5291,13 +5315,13 @@
         <v>110141</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="M10" s="7">
         <v>215</v>
@@ -5306,13 +5330,13 @@
         <v>144103</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>347</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5327,13 +5351,13 @@
         <v>1005286</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>42</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="H11" s="7">
         <v>1337</v>
@@ -5342,13 +5366,13 @@
         <v>949333</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="M11" s="7">
         <v>2265</v>
@@ -5357,13 +5381,13 @@
         <v>1954619</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>353</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5431,13 +5455,13 @@
         <v>37830</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H13" s="7">
         <v>87</v>
@@ -5446,13 +5470,13 @@
         <v>60952</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>358</v>
+        <v>277</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="M13" s="7">
         <v>124</v>
@@ -5461,13 +5485,13 @@
         <v>98782</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>127</v>
+        <v>365</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5482,13 +5506,13 @@
         <v>689871</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H14" s="7">
         <v>958</v>
@@ -5497,13 +5521,13 @@
         <v>812145</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>366</v>
+        <v>285</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="M14" s="7">
         <v>1596</v>
@@ -5512,13 +5536,13 @@
         <v>1502016</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>137</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,7 +5598,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5586,13 +5610,13 @@
         <v>49353</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="H16" s="7">
         <v>140</v>
@@ -5601,13 +5625,13 @@
         <v>101311</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="M16" s="7">
         <v>198</v>
@@ -5616,13 +5640,13 @@
         <v>150664</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>253</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5637,13 +5661,13 @@
         <v>916050</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="H17" s="7">
         <v>1419</v>
@@ -5652,13 +5676,13 @@
         <v>1044992</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="M17" s="7">
         <v>2367</v>
@@ -5667,13 +5691,13 @@
         <v>1961042</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>260</v>
+        <v>389</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5741,13 +5765,13 @@
         <v>151061</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="H19" s="7">
         <v>511</v>
@@ -5756,13 +5780,13 @@
         <v>324914</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>268</v>
+        <v>396</v>
       </c>
       <c r="M19" s="7">
         <v>678</v>
@@ -5771,13 +5795,13 @@
         <v>475975</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5792,13 +5816,13 @@
         <v>3232576</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="H20" s="7">
         <v>4847</v>
@@ -5807,13 +5831,13 @@
         <v>3477298</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>275</v>
+        <v>404</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="M20" s="7">
         <v>8054</v>
@@ -5822,13 +5846,13 @@
         <v>6709874</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5884,7 +5908,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A05-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDE61A3A-6505-411A-94FA-56F4A55A4F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA508D5D-45A2-483A-A1F5-1696908D4598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{066F4F6F-2196-45EE-A118-8D58E6A8ECF0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{05B78396-4F71-4B9E-93F0-7578CB0D55C4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="399">
   <si>
     <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>1,86%</t>
@@ -80,24 +80,21 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,57%</t>
+    <t>6,44%</t>
   </si>
   <si>
     <t>3,19%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
   </si>
   <si>
     <t>2,52%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
     <t>5,5%</t>
   </si>
   <si>
@@ -107,7 +104,7 @@
     <t>98,14%</t>
   </si>
   <si>
-    <t>93,43%</t>
+    <t>93,56%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,10 +113,10 @@
     <t>96,81%</t>
   </si>
   <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
   </si>
   <si>
     <t>97,48%</t>
@@ -128,9 +125,6 @@
     <t>94,5%</t>
   </si>
   <si>
-    <t>98,87%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
@@ -140,55 +134,55 @@
     <t>3,11%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
   </si>
   <si>
     <t>3,31%</t>
   </si>
   <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
   </si>
   <si>
     <t>3,21%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
   </si>
   <si>
     <t>96,89%</t>
   </si>
   <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
   </si>
   <si>
     <t>96,69%</t>
   </si>
   <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
   </si>
   <si>
     <t>96,79%</t>
   </si>
   <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -197,949 +191,946 @@
     <t>2,53%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
   </si>
   <si>
     <t>5,69%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
   </si>
   <si>
     <t>4,12%</t>
   </si>
   <si>
-    <t>3,29%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2023 (Tasa respuesta: 99,87%)</t>
+  </si>
+  <si>
+    <t>1,52%</t>
   </si>
   <si>
     <t>5,09%</t>
   </si>
   <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
   </si>
   <si>
     <t>94,91%</t>
   </si>
   <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
   </si>
   <si>
     <t>5,16%</t>
   </si>
   <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
   </si>
   <si>
     <t>94,84%</t>
   </si>
   <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
   </si>
   <si>
     <t>93,45%</t>
   </si>
   <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2023 (Tasa respuesta: 99,87%)</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
   </si>
   <si>
     <t>10,4%</t>
   </si>
   <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
   </si>
   <si>
     <t>6,87%</t>
   </si>
   <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
   </si>
   <si>
     <t>89,6%</t>
   </si>
   <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
   </si>
   <si>
     <t>93,13%</t>
   </si>
   <si>
-    <t>94,12%</t>
+    <t>92,1%</t>
   </si>
   <si>
     <t>5,2%</t>
   </si>
   <si>
-    <t>3,7%</t>
+    <t>3,83%</t>
   </si>
   <si>
     <t>7,14%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
+    <t>4,49%</t>
   </si>
   <si>
     <t>6,17%</t>
   </si>
   <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
   </si>
   <si>
     <t>94,8%</t>
@@ -1148,124 +1139,103 @@
     <t>92,86%</t>
   </si>
   <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
   </si>
   <si>
     <t>93,83%</t>
   </si>
   <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
   </si>
   <si>
     <t>5,11%</t>
   </si>
   <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
+    <t>3,94%</t>
   </si>
   <si>
     <t>8,84%</t>
   </si>
   <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
   </si>
   <si>
     <t>94,89%</t>
   </si>
   <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
+    <t>96,06%</t>
   </si>
   <si>
     <t>91,16%</t>
   </si>
   <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
   </si>
   <si>
     <t>8,55%</t>
   </si>
   <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
   </si>
   <si>
     <t>6,62%</t>
   </si>
   <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
   </si>
   <si>
     <t>91,45%</t>
   </si>
   <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
   </si>
   <si>
     <t>93,38%</t>
   </si>
   <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
   </si>
 </sst>
 </file>
@@ -1677,7 +1647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED305965-5112-400F-B986-95982B34B406}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0BE02B-5CC7-48DB-8BEF-E410470EC663}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1834,16 +1804,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>103</v>
@@ -1852,13 +1822,13 @@
         <v>113210</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>124</v>
@@ -1867,13 +1837,13 @@
         <v>109160</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>227</v>
@@ -1882,13 +1852,13 @@
         <v>222370</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1903,13 +1873,13 @@
         <v>115358</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>128</v>
@@ -1918,13 +1888,13 @@
         <v>112755</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>233</v>
@@ -1933,18 +1903,18 @@
         <v>228113</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1956,13 +1926,13 @@
         <v>17938</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -1971,13 +1941,13 @@
         <v>19068</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -1986,19 +1956,19 @@
         <v>37006</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>558</v>
@@ -2007,13 +1977,13 @@
         <v>559698</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>549</v>
@@ -2022,13 +1992,13 @@
         <v>556528</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1107</v>
@@ -2037,13 +2007,13 @@
         <v>1116226</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,13 +2028,13 @@
         <v>577636</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>568</v>
@@ -2073,13 +2043,13 @@
         <v>575596</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>1145</v>
@@ -2088,18 +2058,18 @@
         <v>1153232</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2111,13 +2081,13 @@
         <v>24337</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -2126,13 +2096,13 @@
         <v>55125</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>74</v>
@@ -2141,19 +2111,19 @@
         <v>79463</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>873</v>
@@ -2162,13 +2132,13 @@
         <v>937463</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>857</v>
@@ -2177,13 +2147,13 @@
         <v>913268</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1730</v>
@@ -2192,13 +2162,13 @@
         <v>1850730</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2213,13 +2183,13 @@
         <v>961800</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>908</v>
@@ -2228,13 +2198,13 @@
         <v>968393</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1804</v>
@@ -2243,18 +2213,18 @@
         <v>1930193</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2266,13 +2236,13 @@
         <v>13204</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -2281,13 +2251,13 @@
         <v>46706</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -2296,19 +2266,19 @@
         <v>59910</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>628</v>
@@ -2317,13 +2287,13 @@
         <v>665305</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>647</v>
@@ -2332,13 +2302,13 @@
         <v>637135</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>1275</v>
@@ -2347,13 +2317,13 @@
         <v>1302440</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2368,13 +2338,13 @@
         <v>678509</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>696</v>
@@ -2383,13 +2353,13 @@
         <v>683841</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>1337</v>
@@ -2398,18 +2368,18 @@
         <v>1362350</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2421,13 +2391,13 @@
         <v>26924</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H16" s="7">
         <v>54</v>
@@ -2436,13 +2406,13 @@
         <v>55644</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>82</v>
@@ -2451,19 +2421,19 @@
         <v>82568</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>966</v>
@@ -2472,13 +2442,13 @@
         <v>915298</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="H17" s="7">
         <v>943</v>
@@ -2487,13 +2457,13 @@
         <v>982968</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>1909</v>
@@ -2502,13 +2472,13 @@
         <v>1898266</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2523,13 +2493,13 @@
         <v>942222</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>997</v>
@@ -2538,13 +2508,13 @@
         <v>1038612</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>1991</v>
@@ -2553,13 +2523,13 @@
         <v>1980834</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2576,13 +2546,13 @@
         <v>84552</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H19" s="7">
         <v>177</v>
@@ -2591,13 +2561,13 @@
         <v>180138</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M19" s="7">
         <v>262</v>
@@ -2606,19 +2576,19 @@
         <v>264690</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>3128</v>
@@ -2627,13 +2597,13 @@
         <v>3190973</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>3120</v>
@@ -2642,28 +2612,28 @@
         <v>3199060</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>6248</v>
       </c>
       <c r="N20" s="7">
-        <v>6390033</v>
+        <v>6390032</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,13 +2648,13 @@
         <v>3275525</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>3297</v>
@@ -2693,33 +2663,33 @@
         <v>3379198</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>6510</v>
       </c>
       <c r="N21" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2740,7 +2710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9A4422-589A-4C1F-9482-E00B8A595D48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776B3F88-FF60-4F94-AF56-44A9A752C257}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2757,7 +2727,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2864,13 +2834,13 @@
         <v>4844</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -2879,13 +2849,13 @@
         <v>10547</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -2894,19 +2864,19 @@
         <v>15392</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>117</v>
@@ -2915,13 +2885,13 @@
         <v>110106</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H5" s="7">
         <v>89</v>
@@ -2930,13 +2900,13 @@
         <v>101358</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M5" s="7">
         <v>206</v>
@@ -2945,13 +2915,13 @@
         <v>211463</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,13 +2936,13 @@
         <v>114950</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>99</v>
@@ -2981,13 +2951,13 @@
         <v>111905</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>220</v>
@@ -2996,18 +2966,18 @@
         <v>226855</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3019,13 +2989,13 @@
         <v>19684</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H7" s="7">
         <v>37</v>
@@ -3034,13 +3004,13 @@
         <v>38850</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M7" s="7">
         <v>55</v>
@@ -3049,19 +3019,19 @@
         <v>58534</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>532</v>
@@ -3070,13 +3040,13 @@
         <v>566130</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H8" s="7">
         <v>510</v>
@@ -3085,13 +3055,13 @@
         <v>541582</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M8" s="7">
         <v>1042</v>
@@ -3100,13 +3070,13 @@
         <v>1107711</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,13 +3091,13 @@
         <v>585814</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>547</v>
@@ -3136,13 +3106,13 @@
         <v>580432</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>1097</v>
@@ -3151,18 +3121,18 @@
         <v>1166245</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3174,13 +3144,13 @@
         <v>30227</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="H10" s="7">
         <v>75</v>
@@ -3189,13 +3159,13 @@
         <v>82944</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M10" s="7">
         <v>103</v>
@@ -3204,19 +3174,19 @@
         <v>113171</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>908</v>
@@ -3225,13 +3195,13 @@
         <v>987720</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="H11" s="7">
         <v>862</v>
@@ -3240,13 +3210,13 @@
         <v>945981</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M11" s="7">
         <v>1770</v>
@@ -3255,13 +3225,13 @@
         <v>1933701</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,13 +3246,13 @@
         <v>1017947</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>937</v>
@@ -3291,13 +3261,13 @@
         <v>1028925</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1873</v>
@@ -3306,18 +3276,18 @@
         <v>2046872</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3329,13 +3299,13 @@
         <v>24781</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -3344,13 +3314,13 @@
         <v>46131</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -3359,19 +3329,19 @@
         <v>70912</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>671</v>
@@ -3380,13 +3350,13 @@
         <v>731757</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>663</v>
@@ -3395,10 +3365,10 @@
         <v>730152</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>183</v>
@@ -3431,13 +3401,13 @@
         <v>756538</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>704</v>
@@ -3446,13 +3416,13 @@
         <v>776283</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>1392</v>
@@ -3461,18 +3431,18 @@
         <v>1532821</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3490,7 +3460,7 @@
         <v>188</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="H16" s="7">
         <v>72</v>
@@ -3499,13 +3469,13 @@
         <v>74340</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M16" s="7">
         <v>102</v>
@@ -3514,19 +3484,19 @@
         <v>109588</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>878</v>
@@ -3535,13 +3505,13 @@
         <v>910682</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H17" s="7">
         <v>929</v>
@@ -3550,13 +3520,13 @@
         <v>975406</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M17" s="7">
         <v>1807</v>
@@ -3565,13 +3535,13 @@
         <v>1886089</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3556,13 @@
         <v>945930</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>1001</v>
@@ -3601,13 +3571,13 @@
         <v>1049746</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>1909</v>
@@ -3616,13 +3586,13 @@
         <v>1995677</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,13 +3609,13 @@
         <v>114785</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>57</v>
+        <v>204</v>
       </c>
       <c r="H19" s="7">
         <v>235</v>
@@ -3654,13 +3624,13 @@
         <v>252812</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M19" s="7">
         <v>332</v>
@@ -3669,19 +3639,19 @@
         <v>367597</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>3106</v>
@@ -3690,10 +3660,10 @@
         <v>3306394</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>66</v>
+        <v>211</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>212</v>
@@ -3741,13 +3711,13 @@
         <v>3421179</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>3288</v>
@@ -3756,13 +3726,13 @@
         <v>3547292</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>6491</v>
@@ -3771,18 +3741,18 @@
         <v>6968470</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3803,7 +3773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E554A3DA-DB9A-4FD6-876C-839E6ABC8F36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0585CF2C-5958-48BB-BA9E-36387E231B21}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3957,7 +3927,7 @@
         <v>12132</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>226</v>
@@ -3969,7 +3939,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>110</v>
@@ -4029,13 +3999,13 @@
         <v>116546</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>115</v>
@@ -4044,13 +4014,13 @@
         <v>113360</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>228</v>
@@ -4059,18 +4029,18 @@
         <v>229906</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4118,13 +4088,13 @@
         <v>243</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>244</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>526</v>
@@ -4133,13 +4103,13 @@
         <v>545390</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H8" s="7">
         <v>508</v>
@@ -4148,13 +4118,13 @@
         <v>515863</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M8" s="7">
         <v>1034</v>
@@ -4163,13 +4133,13 @@
         <v>1061253</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4154,13 @@
         <v>558254</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>551</v>
@@ -4199,13 +4169,13 @@
         <v>559479</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>1090</v>
@@ -4214,18 +4184,18 @@
         <v>1117733</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4237,13 +4207,13 @@
         <v>31438</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>36</v>
+        <v>253</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>255</v>
+        <v>193</v>
       </c>
       <c r="H10" s="7">
         <v>62</v>
@@ -4252,13 +4222,13 @@
         <v>69557</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M10" s="7">
         <v>92</v>
@@ -4267,19 +4237,19 @@
         <v>100995</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>921</v>
@@ -4288,13 +4258,13 @@
         <v>990993</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>263</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>46</v>
+        <v>261</v>
       </c>
       <c r="H11" s="7">
         <v>915</v>
@@ -4303,13 +4273,13 @@
         <v>973356</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M11" s="7">
         <v>1836</v>
@@ -4318,13 +4288,13 @@
         <v>1964349</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4309,13 @@
         <v>1022431</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>977</v>
@@ -4354,13 +4324,13 @@
         <v>1042913</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1928</v>
@@ -4369,18 +4339,18 @@
         <v>2065344</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4392,13 +4362,13 @@
         <v>29806</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>270</v>
+        <v>145</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>271</v>
+        <v>203</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
@@ -4407,13 +4377,13 @@
         <v>57822</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M13" s="7">
         <v>81</v>
@@ -4422,19 +4392,19 @@
         <v>87628</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>194</v>
+        <v>272</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>668</v>
@@ -4443,13 +4413,13 @@
         <v>729746</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>278</v>
+        <v>154</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>280</v>
+        <v>212</v>
       </c>
       <c r="H14" s="7">
         <v>683</v>
@@ -4458,13 +4428,13 @@
         <v>727189</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M14" s="7">
         <v>1351</v>
@@ -4473,13 +4443,13 @@
         <v>1456935</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>204</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,13 +4464,13 @@
         <v>759552</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>736</v>
@@ -4509,13 +4479,13 @@
         <v>785011</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>1432</v>
@@ -4524,18 +4494,18 @@
         <v>1544563</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4547,13 +4517,13 @@
         <v>40462</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H16" s="7">
         <v>79</v>
@@ -4562,13 +4532,13 @@
         <v>91125</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="M16" s="7">
         <v>118</v>
@@ -4577,19 +4547,19 @@
         <v>131587</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>293</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>893</v>
@@ -4598,13 +4568,13 @@
         <v>897105</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="H17" s="7">
         <v>880</v>
@@ -4613,13 +4583,13 @@
         <v>952654</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="M17" s="7">
         <v>1773</v>
@@ -4628,13 +4598,13 @@
         <v>1849759</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>303</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,13 +4619,13 @@
         <v>937567</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>959</v>
@@ -4664,13 +4634,13 @@
         <v>1043779</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>1891</v>
@@ -4679,13 +4649,13 @@
         <v>1981346</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4702,13 +4672,13 @@
         <v>118165</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>304</v>
+        <v>177</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="H19" s="7">
         <v>246</v>
@@ -4717,13 +4687,13 @@
         <v>270657</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="M19" s="7">
         <v>359</v>
@@ -4732,19 +4702,19 @@
         <v>388822</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>3118</v>
@@ -4753,13 +4723,13 @@
         <v>3276185</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>311</v>
+        <v>186</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="H20" s="7">
         <v>3092</v>
@@ -4768,13 +4738,13 @@
         <v>3273885</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>6210</v>
@@ -4783,13 +4753,13 @@
         <v>6550070</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,13 +4774,13 @@
         <v>3394350</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>3338</v>
@@ -4819,13 +4789,13 @@
         <v>3544542</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>6569</v>
@@ -4834,18 +4804,18 @@
         <v>6938892</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4866,7 +4836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059E0804-6C44-423C-A7C8-94C65799099E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECA863E-90AA-4B4B-A57A-587C600FF1B5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4883,7 +4853,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4990,13 +4960,13 @@
         <v>1549</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>174</v>
+        <v>312</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -5005,13 +4975,13 @@
         <v>6051</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -5020,19 +4990,19 @@
         <v>7601</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>116</v>
@@ -5041,13 +5011,13 @@
         <v>100433</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>181</v>
+        <v>320</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
         <v>229</v>
@@ -5056,13 +5026,13 @@
         <v>124325</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="M5" s="7">
         <v>345</v>
@@ -5071,13 +5041,13 @@
         <v>224757</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,13 +5062,13 @@
         <v>101982</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>242</v>
@@ -5107,13 +5077,13 @@
         <v>130376</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>360</v>
@@ -5122,18 +5092,18 @@
         <v>232358</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5145,13 +5115,13 @@
         <v>28366</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>74</v>
+        <v>327</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H7" s="7">
         <v>92</v>
@@ -5160,13 +5130,13 @@
         <v>46459</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="M7" s="7">
         <v>126</v>
@@ -5175,19 +5145,19 @@
         <v>74825</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>165</v>
+        <v>333</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>338</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>577</v>
@@ -5196,13 +5166,13 @@
         <v>520936</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>84</v>
+        <v>335</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H8" s="7">
         <v>904</v>
@@ -5211,13 +5181,13 @@
         <v>546503</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M8" s="7">
         <v>1481</v>
@@ -5226,13 +5196,13 @@
         <v>1067439</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>341</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>346</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5217,13 @@
         <v>549302</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>996</v>
@@ -5262,13 +5232,13 @@
         <v>592962</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>1607</v>
@@ -5277,18 +5247,18 @@
         <v>1142264</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5300,13 +5270,13 @@
         <v>33962</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>344</v>
       </c>
       <c r="H10" s="7">
         <v>179</v>
@@ -5315,13 +5285,13 @@
         <v>110141</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="M10" s="7">
         <v>215</v>
@@ -5330,19 +5300,19 @@
         <v>144103</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>352</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>208</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>928</v>
@@ -5351,13 +5321,13 @@
         <v>1005286</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>350</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H11" s="7">
         <v>1337</v>
@@ -5366,13 +5336,13 @@
         <v>949333</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M11" s="7">
         <v>2265</v>
@@ -5381,13 +5351,13 @@
         <v>1954619</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>214</v>
+        <v>356</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>358</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,13 +5372,13 @@
         <v>1039248</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>1516</v>
@@ -5417,13 +5387,13 @@
         <v>1059474</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>2480</v>
@@ -5432,18 +5402,18 @@
         <v>2098722</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5455,13 +5425,13 @@
         <v>37830</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="H13" s="7">
         <v>87</v>
@@ -5470,13 +5440,13 @@
         <v>60952</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>363</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>124</v>
@@ -5485,19 +5455,19 @@
         <v>98782</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>638</v>
@@ -5506,13 +5476,13 @@
         <v>689871</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H14" s="7">
         <v>958</v>
@@ -5521,13 +5491,13 @@
         <v>812145</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>370</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M14" s="7">
         <v>1596</v>
@@ -5536,13 +5506,13 @@
         <v>1502016</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5557,13 +5527,13 @@
         <v>727701</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>1045</v>
@@ -5572,13 +5542,13 @@
         <v>873097</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>1720</v>
@@ -5587,18 +5557,18 @@
         <v>1600798</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5610,13 +5580,13 @@
         <v>49353</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>377</v>
+        <v>141</v>
       </c>
       <c r="H16" s="7">
         <v>140</v>
@@ -5625,13 +5595,13 @@
         <v>101311</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="M16" s="7">
         <v>198</v>
@@ -5640,19 +5610,19 @@
         <v>150664</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>948</v>
@@ -5661,13 +5631,13 @@
         <v>916050</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>384</v>
+        <v>149</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="H17" s="7">
         <v>1419</v>
@@ -5676,13 +5646,13 @@
         <v>1044992</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="M17" s="7">
         <v>2367</v>
@@ -5694,10 +5664,10 @@
         <v>213</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,13 +5682,13 @@
         <v>965403</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>1559</v>
@@ -5727,13 +5697,13 @@
         <v>1146303</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>2565</v>
@@ -5742,13 +5712,13 @@
         <v>2111706</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5765,13 +5735,13 @@
         <v>151061</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>391</v>
+        <v>161</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>393</v>
+        <v>92</v>
       </c>
       <c r="H19" s="7">
         <v>511</v>
@@ -5780,13 +5750,13 @@
         <v>324914</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="M19" s="7">
         <v>678</v>
@@ -5795,34 +5765,34 @@
         <v>475975</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>3207</v>
       </c>
       <c r="D20" s="7">
-        <v>3232576</v>
+        <v>3232575</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>400</v>
+        <v>170</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>401</v>
+        <v>99</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="H20" s="7">
         <v>4847</v>
@@ -5831,13 +5801,13 @@
         <v>3477298</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="M20" s="7">
         <v>8054</v>
@@ -5846,13 +5816,13 @@
         <v>6709874</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,16 +5834,16 @@
         <v>3374</v>
       </c>
       <c r="D21" s="7">
-        <v>3383637</v>
+        <v>3383636</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>5358</v>
@@ -5882,13 +5852,13 @@
         <v>3802212</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>8732</v>
@@ -5897,18 +5867,18 @@
         <v>7185849</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A05-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA508D5D-45A2-483A-A1F5-1696908D4598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFD3A9E0-F3B7-401B-B643-3F66315DC6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{05B78396-4F71-4B9E-93F0-7578CB0D55C4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4DE4AE14-F1A7-4CF1-A96E-5A8DC145B04C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="336">
   <si>
     <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,228 +68,183 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
   </si>
   <si>
     <t>5,5%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
   </si>
   <si>
     <t>94,5%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
     <t>96,57%</t>
   </si>
   <si>
@@ -404,838 +359,694 @@
     <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
   </si>
   <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
   </si>
   <si>
     <t>6,78%</t>
   </si>
   <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
   </si>
   <si>
     <t>93,22%</t>
   </si>
   <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2023 (Tasa respuesta: 99,87%)</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
   </si>
   <si>
     <t>4,86%</t>
   </si>
   <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
   </si>
   <si>
     <t>95,14%</t>
   </si>
   <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2023 (Tasa respuesta: 99,87%)</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
   </si>
 </sst>
 </file>
@@ -1647,8 +1458,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0BE02B-5CC7-48DB-8BEF-E410470EC663}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6F5649-5AAA-4DA9-A086-E5F315E6B18C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1765,10 +1576,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7">
-        <v>2148</v>
+        <v>20086</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1780,10 +1591,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="I4" s="7">
-        <v>3595</v>
+        <v>22663</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1795,70 +1606,70 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="N4" s="7">
-        <v>5743</v>
+        <v>42750</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>103</v>
+        <v>661</v>
       </c>
       <c r="D5" s="7">
-        <v>113210</v>
+        <v>672908</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>124</v>
+        <v>673</v>
       </c>
       <c r="I5" s="7">
-        <v>109160</v>
+        <v>665688</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>227</v>
+        <v>1334</v>
       </c>
       <c r="N5" s="7">
-        <v>222370</v>
+        <v>1338595</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1867,153 +1678,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>682</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>692994</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1378</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1381345</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D7" s="7">
-        <v>17938</v>
+        <v>24337</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="I7" s="7">
-        <v>19068</v>
+        <v>55125</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
+        <v>74</v>
+      </c>
+      <c r="N7" s="7">
+        <v>79463</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="7">
-        <v>37006</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>558</v>
+        <v>873</v>
       </c>
       <c r="D8" s="7">
-        <v>559698</v>
+        <v>937463</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>549</v>
+        <v>857</v>
       </c>
       <c r="I8" s="7">
-        <v>556528</v>
+        <v>913268</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1107</v>
+        <v>1730</v>
       </c>
       <c r="N8" s="7">
-        <v>1116226</v>
+        <v>1850730</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2022,153 +1833,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>577</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>577636</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1145</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1153232</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>24337</v>
+        <v>13204</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="7">
         <v>49</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="7">
-        <v>51</v>
-      </c>
       <c r="I10" s="7">
-        <v>55125</v>
+        <v>46706</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="N10" s="7">
-        <v>79463</v>
+        <v>59910</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>873</v>
+        <v>628</v>
       </c>
       <c r="D11" s="7">
-        <v>937463</v>
+        <v>665305</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>857</v>
+        <v>647</v>
       </c>
       <c r="I11" s="7">
-        <v>913268</v>
+        <v>637135</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1730</v>
+        <v>1275</v>
       </c>
       <c r="N11" s="7">
-        <v>1850730</v>
+        <v>1302440</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2177,153 +1988,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7">
-        <v>13204</v>
+        <v>26924</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I13" s="7">
-        <v>46706</v>
+        <v>55644</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="N13" s="7">
-        <v>59910</v>
+        <v>82568</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>628</v>
+        <v>966</v>
       </c>
       <c r="D14" s="7">
-        <v>665305</v>
+        <v>915298</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="H14" s="7">
-        <v>647</v>
+        <v>943</v>
       </c>
       <c r="I14" s="7">
-        <v>637135</v>
+        <v>982968</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>1275</v>
+        <v>1909</v>
       </c>
       <c r="N14" s="7">
-        <v>1302440</v>
+        <v>1898266</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,153 +2143,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="D16" s="7">
-        <v>26924</v>
+        <v>84552</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
-        <v>54</v>
+        <v>177</v>
       </c>
       <c r="I16" s="7">
-        <v>55644</v>
+        <v>180138</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
-        <v>82</v>
+        <v>262</v>
       </c>
       <c r="N16" s="7">
-        <v>82568</v>
+        <v>264690</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>966</v>
+        <v>3128</v>
       </c>
       <c r="D17" s="7">
-        <v>915298</v>
+        <v>3190973</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
-        <v>943</v>
+        <v>3120</v>
       </c>
       <c r="I17" s="7">
-        <v>982968</v>
+        <v>3199059</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
-        <v>1909</v>
+        <v>6248</v>
       </c>
       <c r="N17" s="7">
-        <v>1898266</v>
+        <v>6390032</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2487,217 +2298,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3213</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3275525</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6510</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6654722</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>85</v>
-      </c>
-      <c r="D19" s="7">
-        <v>84552</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="7">
-        <v>177</v>
-      </c>
-      <c r="I19" s="7">
-        <v>180138</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="A19" t="s">
         <v>104</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M19" s="7">
-        <v>262</v>
-      </c>
-      <c r="N19" s="7">
-        <v>264690</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3128</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3190973</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3120</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3199060</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6248</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6390032</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3213</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3275525</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6510</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6654722</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2710,8 +2365,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776B3F88-FF60-4F94-AF56-44A9A752C257}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F90C67-4BE7-4F23-980F-FAE05F0602CB}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2727,7 +2382,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2828,100 +2483,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D4" s="7">
-        <v>4844</v>
+        <v>24529</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="I4" s="7">
-        <v>10547</v>
+        <v>49397</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="N4" s="7">
-        <v>15392</v>
+        <v>73925</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>649</v>
+      </c>
+      <c r="D5" s="7">
+        <v>676235</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="7">
-        <v>110106</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="H5" s="7">
-        <v>89</v>
+        <v>599</v>
       </c>
       <c r="I5" s="7">
-        <v>101358</v>
+        <v>642940</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>206</v>
+        <v>1248</v>
       </c>
       <c r="N5" s="7">
-        <v>211463</v>
+        <v>1319175</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,153 +2585,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>121</v>
+        <v>671</v>
       </c>
       <c r="D6" s="7">
-        <v>114950</v>
+        <v>700764</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>646</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>692337</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>220</v>
+        <v>1317</v>
       </c>
       <c r="N6" s="7">
-        <v>226855</v>
+        <v>1393100</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7">
-        <v>19684</v>
+        <v>30227</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="I7" s="7">
-        <v>38850</v>
+        <v>82944</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="M7" s="7">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="N7" s="7">
-        <v>58534</v>
+        <v>113171</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>532</v>
+        <v>908</v>
       </c>
       <c r="D8" s="7">
-        <v>566130</v>
+        <v>987720</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7">
-        <v>510</v>
+        <v>862</v>
       </c>
       <c r="I8" s="7">
-        <v>541582</v>
+        <v>945981</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
-        <v>1042</v>
+        <v>1770</v>
       </c>
       <c r="N8" s="7">
-        <v>1107711</v>
+        <v>1933701</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,153 +2740,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>550</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>585814</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>547</v>
+        <v>937</v>
       </c>
       <c r="I9" s="7">
-        <v>580432</v>
+        <v>1028925</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1097</v>
+        <v>1873</v>
       </c>
       <c r="N9" s="7">
-        <v>1166245</v>
+        <v>2046872</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>30227</v>
+        <v>24781</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="H10" s="7">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="I10" s="7">
-        <v>82944</v>
+        <v>46131</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="M10" s="7">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="N10" s="7">
-        <v>113171</v>
+        <v>70912</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>908</v>
+        <v>671</v>
       </c>
       <c r="D11" s="7">
-        <v>987720</v>
+        <v>731757</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="H11" s="7">
-        <v>862</v>
+        <v>663</v>
       </c>
       <c r="I11" s="7">
-        <v>945981</v>
+        <v>730152</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="M11" s="7">
-        <v>1770</v>
+        <v>1334</v>
       </c>
       <c r="N11" s="7">
-        <v>1933701</v>
+        <v>1461909</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,153 +2895,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>688</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>756538</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>937</v>
+        <v>704</v>
       </c>
       <c r="I12" s="7">
-        <v>1028925</v>
+        <v>776283</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1873</v>
+        <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>2046872</v>
+        <v>1532821</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7">
-        <v>24781</v>
+        <v>35248</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H13" s="7">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="I13" s="7">
-        <v>46131</v>
+        <v>74340</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="M13" s="7">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="N13" s="7">
-        <v>70912</v>
+        <v>109588</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>671</v>
+        <v>878</v>
       </c>
       <c r="D14" s="7">
-        <v>731757</v>
+        <v>910682</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="H14" s="7">
-        <v>663</v>
+        <v>929</v>
       </c>
       <c r="I14" s="7">
-        <v>730152</v>
+        <v>975406</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="M14" s="7">
-        <v>1334</v>
+        <v>1807</v>
       </c>
       <c r="N14" s="7">
-        <v>1461909</v>
+        <v>1886089</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,153 +3050,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>688</v>
+        <v>908</v>
       </c>
       <c r="D15" s="7">
-        <v>756538</v>
+        <v>945930</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>704</v>
+        <v>1001</v>
       </c>
       <c r="I15" s="7">
-        <v>776283</v>
+        <v>1049746</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1392</v>
+        <v>1909</v>
       </c>
       <c r="N15" s="7">
-        <v>1532821</v>
+        <v>1995677</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="D16" s="7">
-        <v>35248</v>
+        <v>114785</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="H16" s="7">
-        <v>72</v>
+        <v>235</v>
       </c>
       <c r="I16" s="7">
-        <v>74340</v>
+        <v>252812</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>189</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="M16" s="7">
-        <v>102</v>
+        <v>332</v>
       </c>
       <c r="N16" s="7">
-        <v>109588</v>
+        <v>367597</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>192</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>878</v>
+        <v>3106</v>
       </c>
       <c r="D17" s="7">
-        <v>910682</v>
+        <v>3306394</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="H17" s="7">
-        <v>929</v>
+        <v>3053</v>
       </c>
       <c r="I17" s="7">
-        <v>975406</v>
+        <v>3294480</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="M17" s="7">
-        <v>1807</v>
+        <v>6159</v>
       </c>
       <c r="N17" s="7">
-        <v>1886089</v>
+        <v>6600874</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,217 +3205,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>908</v>
+        <v>3203</v>
       </c>
       <c r="D18" s="7">
-        <v>945930</v>
+        <v>3421179</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1001</v>
+        <v>3288</v>
       </c>
       <c r="I18" s="7">
-        <v>1049746</v>
+        <v>3547292</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1909</v>
+        <v>6491</v>
       </c>
       <c r="N18" s="7">
-        <v>1995677</v>
+        <v>6968471</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>97</v>
-      </c>
-      <c r="D19" s="7">
-        <v>114785</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="H19" s="7">
-        <v>235</v>
-      </c>
-      <c r="I19" s="7">
-        <v>252812</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="M19" s="7">
-        <v>332</v>
-      </c>
-      <c r="N19" s="7">
-        <v>367597</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3106</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3306394</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3053</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3294480</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6159</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6600873</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3203</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3421179</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3288</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3547292</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6491</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6968470</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3773,8 +3272,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0585CF2C-5958-48BB-BA9E-36387E231B21}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9951BE8D-B139-4873-B922-4CAE976BD2EE}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3790,7 +3289,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3891,100 +3390,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>3595</v>
+        <v>16459</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="I4" s="7">
-        <v>8537</v>
+        <v>52153</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="M4" s="7">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="N4" s="7">
-        <v>12132</v>
+        <v>68612</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>226</v>
+        <v>73</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>227</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>110</v>
+        <v>636</v>
       </c>
       <c r="D5" s="7">
-        <v>112951</v>
+        <v>658341</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="H5" s="7">
-        <v>106</v>
+        <v>614</v>
       </c>
       <c r="I5" s="7">
-        <v>104823</v>
+        <v>620686</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="M5" s="7">
-        <v>216</v>
+        <v>1250</v>
       </c>
       <c r="N5" s="7">
-        <v>217774</v>
+        <v>1279027</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>234</v>
+        <v>136</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>235</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,153 +3492,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7">
-        <v>12864</v>
+        <v>31438</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>238</v>
+        <v>162</v>
       </c>
       <c r="H7" s="7">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="I7" s="7">
-        <v>43616</v>
+        <v>69557</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="M7" s="7">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="N7" s="7">
-        <v>56480</v>
+        <v>100995</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>146</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>526</v>
+        <v>921</v>
       </c>
       <c r="D8" s="7">
-        <v>545390</v>
+        <v>990993</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>245</v>
+        <v>171</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="H8" s="7">
-        <v>508</v>
+        <v>915</v>
       </c>
       <c r="I8" s="7">
-        <v>515863</v>
+        <v>973356</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="M8" s="7">
-        <v>1034</v>
+        <v>1836</v>
       </c>
       <c r="N8" s="7">
-        <v>1061253</v>
+        <v>1964349</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,153 +3647,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7">
-        <v>31438</v>
+        <v>29806</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>253</v>
+        <v>173</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="H10" s="7">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I10" s="7">
-        <v>69557</v>
+        <v>57822</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="M10" s="7">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="N10" s="7">
-        <v>100995</v>
+        <v>87628</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>921</v>
+        <v>668</v>
       </c>
       <c r="D11" s="7">
-        <v>990993</v>
+        <v>729746</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>261</v>
+        <v>181</v>
       </c>
       <c r="H11" s="7">
-        <v>915</v>
+        <v>683</v>
       </c>
       <c r="I11" s="7">
-        <v>973356</v>
+        <v>727189</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="M11" s="7">
-        <v>1836</v>
+        <v>1351</v>
       </c>
       <c r="N11" s="7">
-        <v>1964349</v>
+        <v>1456935</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,153 +3802,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D13" s="7">
-        <v>29806</v>
+        <v>40462</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>145</v>
+        <v>231</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="H13" s="7">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="I13" s="7">
-        <v>57822</v>
+        <v>91125</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="M13" s="7">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="N13" s="7">
-        <v>87628</v>
+        <v>131587</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>668</v>
+        <v>893</v>
       </c>
       <c r="D14" s="7">
-        <v>729746</v>
+        <v>897105</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>154</v>
+        <v>240</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="H14" s="7">
-        <v>683</v>
+        <v>880</v>
       </c>
       <c r="I14" s="7">
-        <v>727189</v>
+        <v>952654</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="M14" s="7">
-        <v>1351</v>
+        <v>1773</v>
       </c>
       <c r="N14" s="7">
-        <v>1456935</v>
+        <v>1849759</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,153 +3957,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="D16" s="7">
-        <v>40462</v>
+        <v>118165</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>280</v>
+        <v>146</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="H16" s="7">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="I16" s="7">
-        <v>91125</v>
+        <v>270657</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="M16" s="7">
-        <v>118</v>
+        <v>359</v>
       </c>
       <c r="N16" s="7">
-        <v>131587</v>
+        <v>388822</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>893</v>
+        <v>3118</v>
       </c>
       <c r="D17" s="7">
-        <v>897105</v>
+        <v>3276185</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>288</v>
+        <v>155</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="H17" s="7">
-        <v>880</v>
+        <v>3092</v>
       </c>
       <c r="I17" s="7">
-        <v>952654</v>
+        <v>3273885</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="M17" s="7">
-        <v>1773</v>
+        <v>6210</v>
       </c>
       <c r="N17" s="7">
-        <v>1849759</v>
+        <v>6550070</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,217 +4112,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>113</v>
-      </c>
-      <c r="D19" s="7">
-        <v>118165</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H19" s="7">
-        <v>246</v>
-      </c>
-      <c r="I19" s="7">
-        <v>270657</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="M19" s="7">
-        <v>359</v>
-      </c>
-      <c r="N19" s="7">
-        <v>388822</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3118</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3276185</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3092</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3273885</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6210</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6550070</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4836,8 +4179,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECA863E-90AA-4B4B-A57A-587C600FF1B5}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7392A083-E63E-40FE-A079-8AFADA0F0D16}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4853,7 +4196,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>310</v>
+        <v>265</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4954,100 +4297,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D4" s="7">
-        <v>1549</v>
+        <v>28116</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>311</v>
+        <v>94</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>266</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>312</v>
+        <v>267</v>
       </c>
       <c r="H4" s="7">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="I4" s="7">
-        <v>6051</v>
+        <v>48761</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="M4" s="7">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c r="N4" s="7">
-        <v>7601</v>
+        <v>76876</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>316</v>
+        <v>269</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>317</v>
+        <v>16</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>318</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>116</v>
+        <v>693</v>
       </c>
       <c r="D5" s="7">
-        <v>100433</v>
+        <v>606835</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>319</v>
+        <v>102</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>320</v>
+        <v>271</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="H5" s="7">
-        <v>229</v>
+        <v>1133</v>
       </c>
       <c r="I5" s="7">
-        <v>124325</v>
+        <v>626661</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>321</v>
+        <v>273</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>322</v>
+        <v>274</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="M5" s="7">
-        <v>345</v>
+        <v>1826</v>
       </c>
       <c r="N5" s="7">
-        <v>224757</v>
+        <v>1233497</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>325</v>
+        <v>166</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>326</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5056,153 +4399,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>729</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>634951</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>242</v>
+        <v>1238</v>
       </c>
       <c r="I6" s="7">
-        <v>130376</v>
+        <v>675422</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>360</v>
+        <v>1967</v>
       </c>
       <c r="N6" s="7">
-        <v>232358</v>
+        <v>1310373</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" s="7">
-        <v>28366</v>
+        <v>31660</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>327</v>
+        <v>276</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>328</v>
+        <v>188</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>329</v>
+        <v>277</v>
       </c>
       <c r="H7" s="7">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="I7" s="7">
-        <v>46459</v>
+        <v>98922</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>331</v>
+        <v>279</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>332</v>
+        <v>280</v>
       </c>
       <c r="M7" s="7">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="N7" s="7">
-        <v>74825</v>
+        <v>130582</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>333</v>
+        <v>281</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>282</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>334</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>577</v>
+        <v>928</v>
       </c>
       <c r="D8" s="7">
-        <v>520936</v>
+        <v>1161204</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>335</v>
+        <v>284</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>336</v>
+        <v>285</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>337</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
-        <v>904</v>
+        <v>1337</v>
       </c>
       <c r="I8" s="7">
-        <v>546503</v>
+        <v>859184</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>338</v>
+        <v>286</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>339</v>
+        <v>287</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>340</v>
+        <v>288</v>
       </c>
       <c r="M8" s="7">
-        <v>1481</v>
+        <v>2265</v>
       </c>
       <c r="N8" s="7">
-        <v>1067439</v>
+        <v>2020389</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>341</v>
+        <v>289</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>342</v>
+        <v>290</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,153 +4554,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>611</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549302</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>996</v>
+        <v>1516</v>
       </c>
       <c r="I9" s="7">
-        <v>592962</v>
+        <v>958106</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1607</v>
+        <v>2480</v>
       </c>
       <c r="N9" s="7">
-        <v>1142264</v>
+        <v>2150971</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" s="7">
-        <v>33962</v>
+        <v>35069</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>343</v>
+        <v>293</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="H10" s="7">
-        <v>179</v>
+        <v>87</v>
       </c>
       <c r="I10" s="7">
-        <v>110141</v>
+        <v>54539</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>345</v>
+        <v>233</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>346</v>
+        <v>295</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>347</v>
+        <v>296</v>
       </c>
       <c r="M10" s="7">
-        <v>215</v>
+        <v>124</v>
       </c>
       <c r="N10" s="7">
-        <v>144103</v>
+        <v>89608</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>348</v>
+        <v>297</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>349</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>928</v>
+        <v>638</v>
       </c>
       <c r="D11" s="7">
-        <v>1005286</v>
+        <v>668615</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="H11" s="7">
-        <v>1337</v>
+        <v>958</v>
       </c>
       <c r="I11" s="7">
-        <v>949333</v>
+        <v>877643</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>352</v>
+        <v>241</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>353</v>
+        <v>303</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="M11" s="7">
-        <v>2265</v>
+        <v>1596</v>
       </c>
       <c r="N11" s="7">
-        <v>1954619</v>
+        <v>1546258</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>355</v>
+        <v>305</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>356</v>
+        <v>306</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>217</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,153 +4709,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>675</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>703684</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1516</v>
+        <v>1045</v>
       </c>
       <c r="I12" s="7">
-        <v>1059474</v>
+        <v>932182</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2480</v>
+        <v>1720</v>
       </c>
       <c r="N12" s="7">
-        <v>2098722</v>
+        <v>1635866</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="D13" s="7">
-        <v>37830</v>
+        <v>46870</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>357</v>
+        <v>308</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>359</v>
+        <v>203</v>
       </c>
       <c r="H13" s="7">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="I13" s="7">
-        <v>60952</v>
+        <v>88664</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>360</v>
+        <v>311</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>312</v>
       </c>
       <c r="M13" s="7">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="N13" s="7">
-        <v>98782</v>
+        <v>135534</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>361</v>
+        <v>114</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>363</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>638</v>
+        <v>948</v>
       </c>
       <c r="D14" s="7">
-        <v>689871</v>
+        <v>879961</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>364</v>
+        <v>315</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>365</v>
+        <v>211</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>366</v>
+        <v>316</v>
       </c>
       <c r="H14" s="7">
-        <v>958</v>
+        <v>1419</v>
       </c>
       <c r="I14" s="7">
-        <v>812145</v>
+        <v>1002710</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="M14" s="7">
-        <v>1596</v>
+        <v>2367</v>
       </c>
       <c r="N14" s="7">
-        <v>1502016</v>
+        <v>1882671</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>368</v>
+        <v>122</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>370</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5521,153 +4864,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>675</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>727701</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1045</v>
+        <v>1559</v>
       </c>
       <c r="I15" s="7">
-        <v>873097</v>
+        <v>1091374</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1720</v>
+        <v>2565</v>
       </c>
       <c r="N15" s="7">
-        <v>1600798</v>
+        <v>2018205</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="D16" s="7">
-        <v>49353</v>
+        <v>141714</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>371</v>
+        <v>322</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>372</v>
+        <v>323</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>141</v>
+        <v>324</v>
       </c>
       <c r="H16" s="7">
-        <v>140</v>
+        <v>511</v>
       </c>
       <c r="I16" s="7">
-        <v>101311</v>
+        <v>290887</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>373</v>
+        <v>325</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>374</v>
+        <v>326</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>375</v>
+        <v>327</v>
       </c>
       <c r="M16" s="7">
-        <v>198</v>
+        <v>678</v>
       </c>
       <c r="N16" s="7">
-        <v>150664</v>
+        <v>432601</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>205</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>376</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>377</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>948</v>
+        <v>3207</v>
       </c>
       <c r="D17" s="7">
-        <v>916050</v>
+        <v>3316616</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>378</v>
+        <v>329</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>149</v>
+        <v>330</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>379</v>
+        <v>331</v>
       </c>
       <c r="H17" s="7">
-        <v>1419</v>
+        <v>4847</v>
       </c>
       <c r="I17" s="7">
-        <v>1044992</v>
+        <v>3366197</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>381</v>
+        <v>333</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="M17" s="7">
-        <v>2367</v>
+        <v>8054</v>
       </c>
       <c r="N17" s="7">
-        <v>1961042</v>
+        <v>6682813</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>213</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>384</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,217 +5019,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3374</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3458330</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1559</v>
+        <v>5358</v>
       </c>
       <c r="I18" s="7">
-        <v>1146303</v>
+        <v>3657084</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2565</v>
+        <v>8732</v>
       </c>
       <c r="N18" s="7">
-        <v>2111706</v>
+        <v>7115414</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>167</v>
-      </c>
-      <c r="D19" s="7">
-        <v>151061</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19" s="7">
-        <v>511</v>
-      </c>
-      <c r="I19" s="7">
-        <v>324914</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="M19" s="7">
-        <v>678</v>
-      </c>
-      <c r="N19" s="7">
-        <v>475975</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3207</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3232575</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4847</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3477298</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8054</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6709874</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3374</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3383636</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5358</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3802212</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8732</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7185849</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
